--- a/budget-and-grant/correction/distribution/年間収支額及び支援希望額表-テンプレート.xlsx
+++ b/budget-and-grant/correction/distribution/年間収支額及び支援希望額表-テンプレート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fitacjp.sharepoint.com/sites/msteams_e12b8c-/Shared Documents/総合管理事務局/2023年度(R5)/活動予算書・活動支援金申請書/補正/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fitacjp-my.sharepoint.com/personal/s21a2036_bene_fit_ac_jp/Documents/デスクトップ/publish/budget-and-grant/correction/distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="11_F8215FC94348EEFF224B4D6DBBFF1DE8D2D45FBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{411421CA-6034-4F1E-BA49-B73D59C376C4}"/>
+  <xr:revisionPtr revIDLastSave="888" documentId="11_F8215FC94348EEFF224B4D6DBBFF1DE8D2D45FBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0879DC4-18D1-4820-BB18-48B76112D5E7}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>摘要</t>
     <rPh sb="0" eb="2">
@@ -341,6 +341,40 @@
     </rPh>
     <rPh sb="2" eb="6">
       <t>シエンキボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出計(予備費以外)</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体名</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請期間区分</t>
+    <rPh sb="0" eb="6">
+      <t>シンセイキカンクブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -353,7 +387,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +431,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -418,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -715,17 +765,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -893,23 +932,303 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -921,44 +1240,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,197 +1261,302 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1442,913 +1839,981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="4.25" customWidth="1"/>
     <col min="3" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="2.0625" customWidth="1"/>
+    <col min="8" max="8" width="2.125" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="2.0625" customWidth="1"/>
+    <col min="10" max="10" width="2.125" customWidth="1"/>
     <col min="11" max="11" width="9.75" customWidth="1"/>
-    <col min="12" max="13" width="9.375" customWidth="1"/>
-    <col min="14" max="14" width="33.4375" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="101"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="5" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="F3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="5" t="s">
+      <c r="G3" s="94"/>
+      <c r="H3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="43" t="s">
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A2" s="58" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="18">
-        <f>D32</f>
+      <c r="B4" s="81"/>
+      <c r="C4" s="7">
+        <f>D34</f>
         <v>0</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="18">
-        <f>SUM(G14,G15,G16,G17,G18,G19,G20,G21,G22,G23,G25,G27,G28,G29,G30)</f>
+      <c r="D4" s="11"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="14" t="str" cm="1">
+        <f t="array" ref="F4">_xlfn.IFS(AND(C4="",G4=""),"",C4-G4&lt;0,"▲",C4-G4=0,"ー",C4-G4&gt;0,"▼")</f>
+        <v>ー</v>
+      </c>
+      <c r="G4" s="26">
+        <f>SUM(G16,G17,G18,G19,G20,G21,G22,G23,G24,G25,G27,G29,G30,G31,G32)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="81" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.IFS(AND(C2="",I2=""),"",C2-I2&lt;0,"▲",C2-I2=0,"ー",C2-I2&gt;0,"▼")</f>
+      <c r="H4" s="14" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(AND(C4="",I4=""),"",C4-I4&lt;0,"▲",C4-I4=0,"ー",C4-I4&gt;0,"▼")</f>
         <v>ー</v>
       </c>
-      <c r="I2" s="18">
-        <f>SUM(K14,K15,K16,K17,K18,K19,K20,K21,K22,K23,K25,K27,K28,K29,K30)</f>
+      <c r="I4" s="26">
+        <f>SUM(K16,K17,K18,K19,K20,K21,K22,K23,K24,K25,K27,K29,K30,K31,K32)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="87" t="str">
-        <f>IF(C3="","",C3)</f>
-        <v/>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="81" t="str" cm="1">
-        <f t="array" ref="H3">_xlfn.IFS(AND(C3="",I3=""),"",C3-I3&lt;0,"▲",C3-I3=0,"ー",C3-I3&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="41" t="str">
+        <f>IF(C5="","",C5)</f>
+        <v/>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="15" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(AND(C5="",I5=""),"",C5-I5&lt;0,"▲",C5-I5=0,"ー",C5-I5&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A6" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="19" t="str">
-        <f t="shared" ref="E4:E10" si="0">IF(C4="","",C4)</f>
-        <v/>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="81" t="str" cm="1">
-        <f t="array" ref="H4">_xlfn.IFS(AND(C4="",I4=""),"",C4-I4&lt;0,"▲",C4-I4=0,"ー",C4-I4&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="42" t="str">
+        <f t="shared" ref="E6:E12" si="0">IF(C6="","",C6)</f>
+        <v/>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="15" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(AND(C6="",I6=""),"",C6-I6&lt;0,"▲",C6-I6=0,"ー",C6-I6&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19" t="str">
+      <c r="B7" s="75"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="81" t="str" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(AND(C5="",I5=""),"",C5-I5&lt;0,"▲",C5-I5=0,"ー",C5-I5&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="15" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(AND(C7="",I7=""),"",C7-I7&lt;0,"▲",C7-I7=0,"ー",C7-I7&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A8" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19" t="str">
+      <c r="B8" s="75"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="81" t="str" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(AND(C6="",I6=""),"",C6-I6&lt;0,"▲",C6-I6=0,"ー",C6-I6&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="15" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(AND(C8="",I8=""),"",C8-I8&lt;0,"▲",C8-I8=0,"ー",C8-I8&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="19" t="str">
+      <c r="B9" s="75"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="81" t="str" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(AND(C7="",I7=""),"",C7-I7&lt;0,"▲",C7-I7=0,"ー",C7-I7&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="15" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(AND(C9="",I9=""),"",C9-I9&lt;0,"▲",C9-I9=0,"ー",C9-I9&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19" t="str">
+      <c r="B10" s="75"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="81" t="str" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(AND(C8="",I8=""),"",C8-I8&lt;0,"▲",C8-I8=0,"ー",C8-I8&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="15" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(AND(C10="",I10=""),"",C10-I10&lt;0,"▲",C10-I10=0,"ー",C10-I10&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A11" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="19" t="str">
+      <c r="B11" s="75"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="81" t="str" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(AND(C9="",I9=""),"",C9-I9&lt;0,"▲",C9-I9=0,"ー",C9-I9&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="66" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="15" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(AND(C11="",I11=""),"",C11-I11&lt;0,"▲",C11-I11=0,"ー",C11-I11&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A12" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="88" t="str">
+      <c r="B12" s="77"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="82" t="str" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(AND(C10="",I10=""),"",C10-I10&lt;0,"▲",C10-I10=0,"ー",C10-I10&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="36" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(AND(C12="",I12=""),"",C12-I12&lt;0,"▲",C12-I12=0,"ー",C12-I12&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="24">
-        <f>SUM(C2:C10)</f>
+      <c r="B13" s="58"/>
+      <c r="C13" s="10">
+        <f>SUM(C4:C12)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="24">
-        <f>SUM(E2:E10)</f>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10">
+        <f>SUM(E4:E12)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="24">
-        <f>SUM(G2:G10)</f>
+      <c r="F13" s="24" t="str" cm="1">
+        <f t="array" ref="F13">_xlfn.IFS(AND(C13="",G13=""),"",C13-G13&lt;0,"▲",C13-G13=0,"ー",C13-G13&gt;0,"▼")</f>
+        <v>ー</v>
+      </c>
+      <c r="G13" s="21">
+        <f>SUM(G4:G12)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="86" t="str" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(AND(C11="",I11=""),"",C11-I11&lt;0,"▲",C11-I11=0,"ー",C11-I11&gt;0,"▼")</f>
+      <c r="H13" s="20" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(AND(C13="",I13=""),"",C13-I13&lt;0,"▲",C13-I13=0,"ー",C13-I13&gt;0,"▼")</f>
         <v>ー</v>
       </c>
-      <c r="I11" s="24">
-        <f>SUM(I2:I10)</f>
+      <c r="I13" s="21">
+        <f>SUM(I4:I12)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="62"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1"/>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="46" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+    </row>
+    <row r="14" spans="1:14" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A15" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="5" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+      <c r="F15" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="5" t="s">
+      <c r="G15" s="94"/>
+      <c r="H15" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="10" t="s">
+      <c r="I15" s="94"/>
+      <c r="J15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="K15" s="94"/>
+      <c r="L15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A14" s="53" t="s">
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A16" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="str">
-        <f>IF(C14="","",C14-D14)</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="81" t="str" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(AND(C14="",I14=""),"",C14-I14&lt;0,"▲",C14-I14=0,"ー",C14-I14&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="81" t="str" cm="1">
-        <f t="array" ref="J14">_xlfn.IFS(AND(G14="",K14=""),"",G14-K14&lt;0,"▲",G14-K14=0,"ー",G14-K14&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="3" t="str">
+        <f>IF(C16="","",C16-D16)</f>
+        <v/>
+      </c>
+      <c r="F16" s="14" t="str" cm="1">
+        <f t="array" ref="F16">_xlfn.IFS(AND(D16="",G16=""),"",D16-G16&lt;0,"▲",D16-G16=0,"ー",D16-G16&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="14" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(AND(C16="",I16=""),"",C16-I16&lt;0,"▲",C16-I16=0,"ー",C16-I16&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="14" t="str" cm="1">
+        <f t="array" ref="J16">_xlfn.IFS(AND(G16="",K16=""),"",G16-K16&lt;0,"▲",G16-K16=0,"ー",G16-K16&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A17" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12" t="str">
-        <f t="shared" ref="E15:E31" si="1">IF(C15="","",C15-D15)</f>
-        <v/>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="81" t="str" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(AND(C15="",I15=""),"",C15-I15&lt;0,"▲",C15-I15=0,"ー",C15-I15&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="81" t="str" cm="1">
-        <f t="array" ref="J15">_xlfn.IFS(AND(G15="",K15=""),"",G15-K15&lt;0,"▲",G15-K15=0,"ー",G15-K15&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="3" t="str">
+        <f t="shared" ref="E17:E32" si="1">IF(C17="","",C17-D17)</f>
+        <v/>
+      </c>
+      <c r="F17" s="15" t="str" cm="1">
+        <f t="array" ref="F17">_xlfn.IFS(AND(D17="",G17=""),"",D17-G17&lt;0,"▲",D17-G17=0,"ー",D17-G17&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="15" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(AND(C17="",I17=""),"",C17-I17&lt;0,"▲",C17-I17=0,"ー",C17-I17&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="15" t="str" cm="1">
+        <f t="array" ref="J17">_xlfn.IFS(AND(G17="",K17=""),"",G17-K17&lt;0,"▲",G17-K17=0,"ー",G17-K17&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A18" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12" t="str">
+      <c r="B18" s="85"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="81" t="str" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(AND(C16="",I16=""),"",C16-I16&lt;0,"▲",C16-I16=0,"ー",C16-I16&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="81" t="str" cm="1">
-        <f t="array" ref="J16">_xlfn.IFS(AND(G16="",K16=""),"",G16-K16&lt;0,"▲",G16-K16=0,"ー",G16-K16&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A17" s="34" t="s">
+      <c r="F18" s="15" t="str" cm="1">
+        <f t="array" ref="F18">_xlfn.IFS(AND(D18="",G18=""),"",D18-G18&lt;0,"▲",D18-G18=0,"ー",D18-G18&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="15" t="str" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(AND(C18="",I18=""),"",C18-I18&lt;0,"▲",C18-I18=0,"ー",C18-I18&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="15" t="str" cm="1">
+        <f t="array" ref="J18">_xlfn.IFS(AND(G18="",K18=""),"",G18-K18&lt;0,"▲",G18-K18=0,"ー",G18-K18&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A19" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12" t="str">
+      <c r="B19" s="85"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="81" t="str" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(AND(C17="",I17=""),"",C17-I17&lt;0,"▲",C17-I17=0,"ー",C17-I17&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="81" t="str" cm="1">
-        <f t="array" ref="J17">_xlfn.IFS(AND(G17="",K17=""),"",G17-K17&lt;0,"▲",G17-K17=0,"ー",G17-K17&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="F19" s="15" t="str" cm="1">
+        <f t="array" ref="F19">_xlfn.IFS(AND(D19="",G19=""),"",D19-G19&lt;0,"▲",D19-G19=0,"ー",D19-G19&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="15" t="str" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(AND(C19="",I19=""),"",C19-I19&lt;0,"▲",C19-I19=0,"ー",C19-I19&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="15" t="str" cm="1">
+        <f t="array" ref="J19">_xlfn.IFS(AND(G19="",K19=""),"",G19-K19&lt;0,"▲",G19-K19=0,"ー",G19-K19&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A20" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12" t="str">
+      <c r="B20" s="85"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="81" t="str" cm="1">
-        <f t="array" ref="H18">_xlfn.IFS(AND(C18="",I18=""),"",C18-I18&lt;0,"▲",C18-I18=0,"ー",C18-I18&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="81" t="str" cm="1">
-        <f t="array" ref="J18">_xlfn.IFS(AND(G18="",K18=""),"",G18-K18&lt;0,"▲",G18-K18=0,"ー",G18-K18&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="F20" s="15" t="str" cm="1">
+        <f t="array" ref="F20">_xlfn.IFS(AND(D20="",G20=""),"",D20-G20&lt;0,"▲",D20-G20=0,"ー",D20-G20&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="15" t="str" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(AND(C20="",I20=""),"",C20-I20&lt;0,"▲",C20-I20=0,"ー",C20-I20&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="15" t="str" cm="1">
+        <f t="array" ref="J20">_xlfn.IFS(AND(G20="",K20=""),"",G20-K20&lt;0,"▲",G20-K20=0,"ー",G20-K20&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A21" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12" t="str">
+      <c r="B21" s="85"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="81" t="str" cm="1">
-        <f t="array" ref="H19">_xlfn.IFS(AND(C19="",I19=""),"",C19-I19&lt;0,"▲",C19-I19=0,"ー",C19-I19&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="81" t="str" cm="1">
-        <f t="array" ref="J19">_xlfn.IFS(AND(G19="",K19=""),"",G19-K19&lt;0,"▲",G19-K19=0,"ー",G19-K19&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A20" s="34" t="s">
+      <c r="F21" s="15" t="str" cm="1">
+        <f t="array" ref="F21">_xlfn.IFS(AND(D21="",G21=""),"",D21-G21&lt;0,"▲",D21-G21=0,"ー",D21-G21&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="15" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(AND(C21="",I21=""),"",C21-I21&lt;0,"▲",C21-I21=0,"ー",C21-I21&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="15" t="str" cm="1">
+        <f t="array" ref="J21">_xlfn.IFS(AND(G21="",K21=""),"",G21-K21&lt;0,"▲",G21-K21=0,"ー",G21-K21&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A22" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12" t="str">
+      <c r="B22" s="85"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="81" t="str" cm="1">
-        <f t="array" ref="H20">_xlfn.IFS(AND(C20="",I20=""),"",C20-I20&lt;0,"▲",C20-I20=0,"ー",C20-I20&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="81" t="str" cm="1">
-        <f t="array" ref="J20">_xlfn.IFS(AND(G20="",K20=""),"",G20-K20&lt;0,"▲",G20-K20=0,"ー",G20-K20&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A21" s="34" t="s">
+      <c r="F22" s="15" t="str" cm="1">
+        <f t="array" ref="F22">_xlfn.IFS(AND(D22="",G22=""),"",D22-G22&lt;0,"▲",D22-G22=0,"ー",D22-G22&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="15" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(AND(C22="",I22=""),"",C22-I22&lt;0,"▲",C22-I22=0,"ー",C22-I22&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="15" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.IFS(AND(G22="",K22=""),"",G22-K22&lt;0,"▲",G22-K22=0,"ー",G22-K22&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A23" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12" t="str">
+      <c r="B23" s="85"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="81" t="str" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(AND(C21="",I21=""),"",C21-I21&lt;0,"▲",C21-I21=0,"ー",C21-I21&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="81" t="str" cm="1">
-        <f t="array" ref="J21">_xlfn.IFS(AND(G21="",K21=""),"",G21-K21&lt;0,"▲",G21-K21=0,"ー",G21-K21&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="F23" s="15" t="str" cm="1">
+        <f t="array" ref="F23">_xlfn.IFS(AND(D23="",G23=""),"",D23-G23&lt;0,"▲",D23-G23=0,"ー",D23-G23&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="15" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(AND(C23="",I23=""),"",C23-I23&lt;0,"▲",C23-I23=0,"ー",C23-I23&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="15" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.IFS(AND(G23="",K23=""),"",G23-K23&lt;0,"▲",G23-K23=0,"ー",G23-K23&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="53"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A24" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12" t="str">
+      <c r="B24" s="85"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="81" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(AND(C22="",I22=""),"",C22-I22&lt;0,"▲",C22-I22=0,"ー",C22-I22&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="81" t="str" cm="1">
-        <f t="array" ref="J22">_xlfn.IFS(AND(G22="",K22=""),"",G22-K22&lt;0,"▲",G22-K22=0,"ー",G22-K22&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="F24" s="15" t="str" cm="1">
+        <f t="array" ref="F24">_xlfn.IFS(AND(D24="",G24=""),"",D24-G24&lt;0,"▲",D24-G24=0,"ー",D24-G24&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="15" t="str" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(AND(C24="",I24=""),"",C24-I24&lt;0,"▲",C24-I24=0,"ー",C24-I24&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="15" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.IFS(AND(G24="",K24=""),"",G24-K24&lt;0,"▲",G24-K24=0,"ー",G24-K24&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A25" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12" t="str">
+      <c r="B25" s="85"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="81" t="str" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(AND(C23="",I23=""),"",C23-I23&lt;0,"▲",C23-I23=0,"ー",C23-I23&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="81" t="str" cm="1">
-        <f t="array" ref="J23">_xlfn.IFS(AND(G23="",K23=""),"",G23-K23&lt;0,"▲",G23-K23=0,"ー",G23-K23&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A24" s="34" t="s">
+      <c r="F25" s="15" t="str" cm="1">
+        <f t="array" ref="F25">_xlfn.IFS(AND(D25="",G25=""),"",D25-G25&lt;0,"▲",D25-G25=0,"ー",D25-G25&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="15" t="str" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(AND(C25="",I25=""),"",C25-I25&lt;0,"▲",C25-I25=0,"ー",C25-I25&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="15" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.IFS(AND(G25="",K25=""),"",G25-K25&lt;0,"▲",G25-K25=0,"ー",G25-K25&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A26" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12" t="str">
+      <c r="B26" s="85"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="81" t="str" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(AND(C24="",I24=""),"",C24-I24&lt;0,"▲",C24-I24=0,"ー",C24-I24&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="73"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A25" s="34" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="15" t="str" cm="1">
+        <f t="array" ref="H26">_xlfn.IFS(AND(C26="",I26=""),"",C26-I26&lt;0,"▲",C26-I26=0,"ー",C26-I26&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A27" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12" t="str">
+      <c r="B27" s="85"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="81" t="str" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(AND(C25="",I25=""),"",C25-I25&lt;0,"▲",C25-I25=0,"ー",C25-I25&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="81" t="str" cm="1">
-        <f t="array" ref="J25">_xlfn.IFS(AND(G25="",K25=""),"",G25-K25&lt;0,"▲",G25-K25=0,"ー",G25-K25&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A26" s="34" t="s">
+      <c r="F27" s="15" t="str" cm="1">
+        <f t="array" ref="F27">_xlfn.IFS(AND(D27="",G27=""),"",D27-G27&lt;0,"▲",D27-G27=0,"ー",D27-G27&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="15" t="str" cm="1">
+        <f t="array" ref="H27">_xlfn.IFS(AND(C27="",I27=""),"",C27-I27&lt;0,"▲",C27-I27=0,"ー",C27-I27&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="15" t="str" cm="1">
+        <f t="array" ref="J27">_xlfn.IFS(AND(G27="",K27=""),"",G27-K27&lt;0,"▲",G27-K27=0,"ー",G27-K27&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A28" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="12" t="str">
+      <c r="B28" s="85"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="81" t="str" cm="1">
-        <f t="array" ref="H26">_xlfn.IFS(AND(C26="",I26=""),"",C26-I26&lt;0,"▲",C26-I26=0,"ー",C26-I26&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="73"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A27" s="34" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="15" t="str" cm="1">
+        <f t="array" ref="H28">_xlfn.IFS(AND(C28="",I28=""),"",C28-I28&lt;0,"▲",C28-I28=0,"ー",C28-I28&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A29" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12" t="str">
+      <c r="B29" s="85"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="81" t="str" cm="1">
-        <f t="array" ref="H27">_xlfn.IFS(AND(C27="",I27=""),"",C27-I27&lt;0,"▲",C27-I27=0,"ー",C27-I27&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="81" t="str" cm="1">
-        <f t="array" ref="J27">_xlfn.IFS(AND(G27="",K27=""),"",G27-K27&lt;0,"▲",G27-K27=0,"ー",G27-K27&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="F29" s="15" t="str" cm="1">
+        <f t="array" ref="F29">_xlfn.IFS(AND(D29="",G29=""),"",D29-G29&lt;0,"▲",D29-G29=0,"ー",D29-G29&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="15" t="str" cm="1">
+        <f t="array" ref="H29">_xlfn.IFS(AND(C29="",I29=""),"",C29-I29&lt;0,"▲",C29-I29=0,"ー",C29-I29&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="15" t="str" cm="1">
+        <f t="array" ref="J29">_xlfn.IFS(AND(G29="",K29=""),"",G29-K29&lt;0,"▲",G29-K29=0,"ー",G29-K29&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A30" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="str">
+      <c r="B30" s="85"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="81" t="str" cm="1">
-        <f t="array" ref="H28">_xlfn.IFS(AND(C28="",I28=""),"",C28-I28&lt;0,"▲",C28-I28=0,"ー",C28-I28&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="81" t="str" cm="1">
-        <f t="array" ref="J28">_xlfn.IFS(AND(G28="",K28=""),"",G28-K28&lt;0,"▲",G28-K28=0,"ー",G28-K28&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="73"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A29" s="34" t="s">
+      <c r="F30" s="15" t="str" cm="1">
+        <f t="array" ref="F30">_xlfn.IFS(AND(D30="",G30=""),"",D30-G30&lt;0,"▲",D30-G30=0,"ー",D30-G30&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="15" t="str" cm="1">
+        <f t="array" ref="H30">_xlfn.IFS(AND(C30="",I30=""),"",C30-I30&lt;0,"▲",C30-I30=0,"ー",C30-I30&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="15" t="str" cm="1">
+        <f t="array" ref="J30">_xlfn.IFS(AND(G30="",K30=""),"",G30-K30&lt;0,"▲",G30-K30=0,"ー",G30-K30&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A31" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12" t="str">
+      <c r="B31" s="85"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="81" t="str" cm="1">
-        <f t="array" ref="H29">_xlfn.IFS(AND(C29="",I29=""),"",C29-I29&lt;0,"▲",C29-I29=0,"ー",C29-I29&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="81" t="str" cm="1">
-        <f t="array" ref="J29">_xlfn.IFS(AND(G29="",K29=""),"",G29-K29&lt;0,"▲",G29-K29=0,"ー",G29-K29&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A30" s="34" t="s">
+      <c r="F31" s="15" t="str" cm="1">
+        <f t="array" ref="F31">_xlfn.IFS(AND(D31="",G31=""),"",D31-G31&lt;0,"▲",D31-G31=0,"ー",D31-G31&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="15" t="str" cm="1">
+        <f t="array" ref="H31">_xlfn.IFS(AND(C31="",I31=""),"",C31-I31&lt;0,"▲",C31-I31=0,"ー",C31-I31&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="15" t="str" cm="1">
+        <f t="array" ref="J31">_xlfn.IFS(AND(G31="",K31=""),"",G31-K31&lt;0,"▲",G31-K31=0,"ー",G31-K31&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A32" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12" t="str">
+      <c r="B32" s="85"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="81" t="str" cm="1">
-        <f t="array" ref="H30">_xlfn.IFS(AND(C30="",I30=""),"",C30-I30&lt;0,"▲",C30-I30=0,"ー",C30-I30&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="81" t="str" cm="1">
-        <f t="array" ref="J30">_xlfn.IFS(AND(G30="",K30=""),"",G30-K30&lt;0,"▲",G30-K30=0,"ー",G30-K30&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="41" t="s">
+      <c r="F32" s="15" t="str" cm="1">
+        <f t="array" ref="F32">_xlfn.IFS(AND(D32="",G32=""),"",D32-G32&lt;0,"▲",D32-G32=0,"ー",D32-G32&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="15" t="str" cm="1">
+        <f t="array" ref="H32">_xlfn.IFS(AND(C32="",I32=""),"",C32-I32&lt;0,"▲",C32-I32=0,"ー",C32-I32&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="15" t="str" cm="1">
+        <f t="array" ref="J32">_xlfn.IFS(AND(G32="",K32=""),"",G32-K32&lt;0,"▲",G32-K32=0,"ー",G32-K32&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="53"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A33" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="82" t="str" cm="1">
-        <f t="array" ref="H31">_xlfn.IFS(AND(C31="",I31=""),"",C31-I31&lt;0,"▲",C31-I31=0,"ー",C31-I31&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="82" t="str" cm="1">
-        <f t="array" ref="J31">_xlfn.IFS(AND(G31="",K31=""),"",G31-K31&lt;0,"▲",G31-K31=0,"ー",G31-K31&gt;0,"▼")</f>
-        <v/>
-      </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="70"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="36" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="5">
+        <f>C13-SUM(C16:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5">
+        <f>SUM(C5:C12)-SUM(E16:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="22" t="str" cm="1">
+        <f t="array" ref="H33">_xlfn.IFS(AND(C33="",I33=""),"",C33-I33&lt;0,"▲",C33-I33=0,"ー",C33-I33&gt;0,"▼")</f>
+        <v>ー</v>
+      </c>
+      <c r="I33" s="23">
+        <f>I13-SUM(I16:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="18" t="str" cm="1">
+        <f t="array" ref="J33">_xlfn.IFS(AND(G33="",K33=""),"",G33-K33&lt;0,"▲",G33-K33=0,"ー",G33-K33&gt;0,"▼")</f>
+        <v/>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="90"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A34" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="24">
-        <f>SUM(C14:C31)</f>
+      <c r="B34" s="58"/>
+      <c r="C34" s="10">
+        <f>SUM(C16:C33)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="24">
-        <f t="shared" ref="D32:E32" si="2">SUM(D14:D31)</f>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:E34" si="2">SUM(D16:D33)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E34" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="24">
-        <f>SUM(G14:G31)</f>
+      <c r="F34" s="20" t="str" cm="1">
+        <f t="array" ref="F34">_xlfn.IFS(AND(D34="",G34=""),"",D34-G34&lt;0,"▲",D34-G34=0,"ー",D34-G34&gt;0,"▼")</f>
+        <v>ー</v>
+      </c>
+      <c r="G34" s="21">
+        <f>SUM(G16:G33)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="84" t="str" cm="1">
-        <f t="array" ref="H32">_xlfn.IFS(AND(C32="",I32=""),"",C32-I32&lt;0,"▲",C32-I32=0,"ー",C32-I32&gt;0,"▼")</f>
+      <c r="H34" s="24" t="str" cm="1">
+        <f t="array" ref="H34">_xlfn.IFS(AND(C34="",I34=""),"",C34-I34&lt;0,"▲",C34-I34=0,"ー",C34-I34&gt;0,"▼")</f>
         <v>ー</v>
       </c>
-      <c r="I32" s="85">
-        <f>SUM(I14:I31)</f>
+      <c r="I34" s="25">
+        <f>SUM(I16:I33)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="84" t="str" cm="1">
-        <f t="array" ref="J32">_xlfn.IFS(AND(G32="",K32=""),"",G32-K32&lt;0,"▲",G32-K32=0,"ー",G32-K32&gt;0,"▼")</f>
+      <c r="J34" s="24" t="str" cm="1">
+        <f t="array" ref="J34">_xlfn.IFS(AND(G34="",K34=""),"",G34-K34&lt;0,"▲",G34-K34=0,"ー",G34-K34&gt;0,"▼")</f>
         <v>ー</v>
       </c>
-      <c r="K32" s="24">
-        <f>SUM(K14:K31)</f>
+      <c r="K34" s="21">
+        <f>SUM(K16:K33)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.350000000000001" customHeight="1" thickBot="1">
+      <c r="F35" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="13">
+        <f>SUM(I16:I32)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+/YxbzTMmCUUi9LkHm1eLLxI90SLHkA7DpUPIrLy9juZ0+rZPcdOMDbVuNHoVEmbek/StehMb3k+IOFd4Ft/1w==" saltValue="7wyacxcIjtdLgciGWniCQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="74">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -2357,28 +2822,74 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.36764705882352944" right="0.16666666666666666" top="0.48958333333333331" bottom="4.1666666666666664E-2" header="0.10416666666666667" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{DC6F893E-9CE1-45F2-8B13-09D0F22CD666}">
+      <formula1>"当初,補正"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.36764705882352944" right="0.20833333333333334" top="0.48958333333333331" bottom="4.1666666666666664E-2" header="0.10416666666666667" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L様式2&amp;C&amp;14年間収支額及び支援希望額表&amp;R&amp;KFF0000 要編集→&amp;K000000　団体名</oddHeader>
+    <oddHeader>&amp;L様式2&amp;C&amp;14年間収支額及び支援希望額表&amp;R&amp;9&amp;K000000活動予算書及び活動支援金申請</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2585,19 +3096,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDA272C-2A78-4ADF-8E5C-F0ED59D8FE84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1717A4E-228F-4194-B5BC-CF8DAD0FA16D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2622,9 +3129,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1717A4E-228F-4194-B5BC-CF8DAD0FA16D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDA272C-2A78-4ADF-8E5C-F0ED59D8FE84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/budget-and-grant/correction/distribution/年間収支額及び支援希望額表-テンプレート.xlsx
+++ b/budget-and-grant/correction/distribution/年間収支額及び支援希望額表-テンプレート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fitacjp-my.sharepoint.com/personal/s21a2036_bene_fit_ac_jp/Documents/デスクトップ/publish/budget-and-grant/correction/distribution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fitacjp.sharepoint.com/sites/msteams_e12b8c-/Shared Documents/総合管理事務局/2023年度(R5)/活動予算書・活動支援金申請書/補正/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="11_F8215FC94348EEFF224B4D6DBBFF1DE8D2D45FBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0879DC4-18D1-4820-BB18-48B76112D5E7}"/>
+  <xr:revisionPtr revIDLastSave="899" documentId="11_F8215FC94348EEFF224B4D6DBBFF1DE8D2D45FBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA08CDD4-FDDD-451D-BB04-889762010780}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>摘要</t>
     <rPh sb="0" eb="2">
@@ -372,11 +372,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>申請期間区分</t>
-    <rPh sb="0" eb="6">
-      <t>シンセイキカンクブン</t>
+    <t>申請種別</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出計(予備費以外)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入合計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -468,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1231,6 +1248,26 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1240,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,6 +1416,50 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1403,31 +1484,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1454,6 +1517,51 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1466,41 +1574,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -1528,35 +1612,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1841,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -1862,31 +1917,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="100" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="101"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1894,27 +1949,27 @@
       <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="62" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="7">
         <f>D34</f>
         <v>0</v>
@@ -1939,15 +1994,15 @@
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="30"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="36"/>
       <c r="D5" s="8"/>
       <c r="E5" s="41" t="str">
@@ -1963,15 +2018,15 @@
       <c r="I5" s="38"/>
       <c r="J5" s="31"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="36"/>
       <c r="D6" s="8"/>
       <c r="E6" s="42" t="str">
@@ -1987,15 +2042,15 @@
       <c r="I6" s="38"/>
       <c r="J6" s="31"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="36"/>
       <c r="D7" s="8"/>
       <c r="E7" s="42" t="str">
@@ -2011,15 +2066,15 @@
       <c r="I7" s="38"/>
       <c r="J7" s="31"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="36"/>
       <c r="D8" s="8"/>
       <c r="E8" s="42" t="str">
@@ -2035,15 +2090,15 @@
       <c r="I8" s="38"/>
       <c r="J8" s="31"/>
       <c r="K8" s="27"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="70"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="79"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="36"/>
       <c r="D9" s="8"/>
       <c r="E9" s="42" t="str">
@@ -2059,15 +2114,15 @@
       <c r="I9" s="38"/>
       <c r="J9" s="31"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="36"/>
       <c r="D10" s="8"/>
       <c r="E10" s="42" t="str">
@@ -2083,15 +2138,15 @@
       <c r="I10" s="38"/>
       <c r="J10" s="31"/>
       <c r="K10" s="27"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="36"/>
       <c r="D11" s="8"/>
       <c r="E11" s="42" t="str">
@@ -2107,15 +2162,15 @@
       <c r="I11" s="38"/>
       <c r="J11" s="31"/>
       <c r="K11" s="27"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="37"/>
       <c r="D12" s="9"/>
       <c r="E12" s="43" t="str">
@@ -2131,15 +2186,15 @@
       <c r="I12" s="39"/>
       <c r="J12" s="32"/>
       <c r="K12" s="28"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="96"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="58"/>
+      <c r="A13" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="90"/>
       <c r="C13" s="10">
         <f>SUM(C4:C12)</f>
         <v>0</v>
@@ -2167,16 +2222,16 @@
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="34"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="61"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
     </row>
     <row r="14" spans="1:14" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2186,29 +2241,29 @@
       <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="62" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="62" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="62" t="s">
+      <c r="K15" s="60"/>
+      <c r="L15" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
       <c r="E16" s="3" t="str">
@@ -2230,15 +2285,15 @@
         <v/>
       </c>
       <c r="K16" s="48"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="3" t="str">
@@ -2260,15 +2315,15 @@
         <v/>
       </c>
       <c r="K17" s="49"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="79"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="85"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="E18" s="3" t="str">
@@ -2290,15 +2345,15 @@
         <v/>
       </c>
       <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="85"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="E19" s="3" t="str">
@@ -2320,15 +2375,15 @@
         <v/>
       </c>
       <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="53"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
       <c r="E20" s="3" t="str">
@@ -2350,15 +2405,15 @@
         <v/>
       </c>
       <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="3" t="str">
@@ -2380,15 +2435,15 @@
         <v/>
       </c>
       <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="3" t="str">
@@ -2410,15 +2465,15 @@
         <v/>
       </c>
       <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="3" t="str">
@@ -2440,15 +2495,15 @@
         <v/>
       </c>
       <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="53"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="3" t="str">
@@ -2470,15 +2525,15 @@
         <v/>
       </c>
       <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
       <c r="E25" s="3" t="str">
@@ -2500,15 +2555,15 @@
         <v/>
       </c>
       <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="67"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3" t="str">
@@ -2524,15 +2579,15 @@
       <c r="I26" s="49"/>
       <c r="J26" s="16"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="70"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
       <c r="E27" s="3" t="str">
@@ -2554,15 +2609,15 @@
         <v/>
       </c>
       <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3" t="str">
@@ -2578,15 +2633,15 @@
       <c r="I28" s="49"/>
       <c r="J28" s="16"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
       <c r="E29" s="3" t="str">
@@ -2608,15 +2663,15 @@
         <v/>
       </c>
       <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="67"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="3" t="str">
@@ -2638,15 +2693,15 @@
         <v/>
       </c>
       <c r="K30" s="49"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="70"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
       <c r="E31" s="3" t="str">
@@ -2668,15 +2723,15 @@
         <v/>
       </c>
       <c r="K31" s="49"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="70"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
       <c r="E32" s="3" t="str">
@@ -2698,15 +2753,15 @@
         <v/>
       </c>
       <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="53"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="87"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="5">
         <f>C13-SUM(C16:C32)</f>
         <v>0</v>
@@ -2731,16 +2786,16 @@
         <v/>
       </c>
       <c r="K33" s="19"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="105"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="10">
+      <c r="B34" s="100"/>
+      <c r="C34" s="51">
         <f>SUM(C16:C33)</f>
         <v>0</v>
       </c>
@@ -2776,76 +2831,45 @@
         <f>SUM(K16:K33)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="61"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="93"/>
     </row>
     <row r="35" spans="1:14" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="F35" s="91" t="s">
+      <c r="A35" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="98"/>
+      <c r="C35" s="52">
+        <f>SUM(C16:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="93"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="108"/>
       <c r="I35" s="13">
         <f>SUM(I16:I32)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+/YxbzTMmCUUi9LkHm1eLLxI90SLHkA7DpUPIrLy9juZ0+rZPcdOMDbVuNHoVEmbek/StehMb3k+IOFd4Ft/1w==" saltValue="7wyacxcIjtdLgciGWniCQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="74">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zrMsa2lHsVzYICzh6bsV14ctSPATWh0rh4c4XtUAHPOl/gJjK7JIzqLfT2KLhOoqtvlCBeA2ISJkGTHxjSV9og==" saltValue="I+/suGcShtfHqd2eniaQIw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="75">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L3:N3"/>
@@ -2862,12 +2886,52 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2884,12 +2948,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3096,15 +3157,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1717A4E-228F-4194-B5BC-CF8DAD0FA16D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDA272C-2A78-4ADF-8E5C-F0ED59D8FE84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3129,10 +3194,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EDA272C-2A78-4ADF-8E5C-F0ED59D8FE84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1717A4E-228F-4194-B5BC-CF8DAD0FA16D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>